--- a/biology/Botanique/Pterocladia/Pterocladia.xlsx
+++ b/biology/Botanique/Pterocladia/Pterocladia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocladia est un genre d’algues rouges de la famille des Pterocladiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 mars 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 mars 2019) :
 Pterocladia angolensis Welwitsch (Statut incertain)
 Pterocladia benguellensis Welwitsch (Statut incertain)
 Pterocladia heteroplatos (Børgesen) Umamaheswara Rao &amp; Kaliaperumal
@@ -521,7 +535,7 @@
 Pterocladia lucida (R.Brown ex Turner) J.Agardh (espèce type)
 Pterocladia sonorensis (E.Y.Dawson) J.G.Stewart &amp; J.N.Norris
 Pterocladia tripolitana De Toni &amp; Levi (Statut incertain)
-Selon BioLib                    (10 mars 2019)[3] et ITIS      (10 mars 2019)[4] :
+Selon BioLib                    (10 mars 2019) et ITIS      (10 mars 2019) :
 Pterocladia bulbosa
 Pterocladia calaglossoides Howe
 Pterocladia capillacea Gmel.
@@ -530,13 +544,13 @@
 Pterocladia media Daws.
 Pterocladia parva
 Pterocladia rigida
-Selon NCBI  (10 mars 2019)[5] :
+Selon NCBI  (10 mars 2019) :
 Pterocladia lucida
 Pterocladia mexicana W.R.Taylor 1945
 Pterocladia musciformis W.R.Taylor 1945
 Pterocladia rectangularis (Lucas) Womersley &amp; Guiry 1994
 Pterocladia robusta W.R.Taylor 1945
-Selon World Register of Marine Species                               (10 mars 2019)[2] :
+Selon World Register of Marine Species                               (10 mars 2019) :
 Pterocladia angolensis Welwitsch mss
 Pterocladia benguellensis Welwitsch
 Pterocladia heteroplatos (Børgesen) Umamaheswara Rao &amp; Kaliaperumal, 1982
